--- a/data/trans_orig/IMC_inf_MED_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_inf_MED_R-Edad-trans_orig.xlsx
@@ -733,7 +733,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -5513,7 +5513,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">

--- a/data/trans_orig/IMC_inf_MED_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_inf_MED_R-Edad-trans_orig.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2012" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2016" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2012" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2023" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
